--- a/etc/doc/단위테스트결과서/단위테스트결과서(UT-ETP-OP-04-03).xlsx
+++ b/etc/doc/단위테스트결과서/단위테스트결과서(UT-ETP-OP-04-03).xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="63">
   <si>
     <t>순번</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -126,10 +126,6 @@
   <si>
     <t>테스트 
 완료일자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>YYYY-MM-DD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -283,6 +279,10 @@
   </si>
   <si>
     <t>시뮬레이션 모드에서 지수기준가 조정시 투자지표가 변경됨을 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -539,9 +539,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -575,15 +572,39 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -593,27 +614,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -635,41 +635,41 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1073,7 +1073,7 @@
   <dimension ref="A2:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1088,10 +1088,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="15"/>
+      <c r="B2" s="23"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -1099,115 +1099,115 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="11" t="s">
+      <c r="B3" s="16"/>
+      <c r="C3" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="19"/>
+      <c r="G3" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="16"/>
+      <c r="J3" s="14">
+        <v>43823</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="16"/>
+      <c r="C4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="19"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="16"/>
+      <c r="J4" s="14">
+        <v>43826</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="16"/>
+      <c r="C5" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="16" t="s">
+      <c r="D5" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="19"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="16"/>
+      <c r="J5" s="14">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="68.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="16"/>
+      <c r="C6" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="19"/>
+    </row>
+    <row r="7" spans="1:10" ht="114.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="16"/>
+      <c r="C7" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="22"/>
-      <c r="J3" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="F4" s="17"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="22"/>
-      <c r="J4" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="F5" s="17"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="22"/>
-      <c r="J5" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="68.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="17"/>
-    </row>
-    <row r="7" spans="1:10" ht="114.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="17"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="19"/>
     </row>
     <row r="8" spans="1:10" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
@@ -1222,345 +1222,366 @@
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="23" t="s">
+      <c r="F9" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="21" t="s">
+      <c r="G9" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="25"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="23" t="s">
+      <c r="H9" s="22"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="20" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="24"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="7" t="s">
+      <c r="A10" s="21"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="I10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J10" s="24"/>
+      <c r="J10" s="21"/>
     </row>
     <row r="11" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
+      <c r="A11" s="4">
         <v>1</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
+      <c r="H11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" s="3"/>
     </row>
     <row r="12" spans="1:10" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5">
+      <c r="A12" s="4">
         <v>2</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
+      <c r="H12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J12" s="3"/>
     </row>
     <row r="13" spans="1:10" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
     </row>
     <row r="14" spans="1:10" ht="69" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
     </row>
     <row r="15" spans="1:10" ht="69" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
     </row>
     <row r="16" spans="1:10" ht="69" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
     </row>
     <row r="17" spans="1:10" ht="66" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
     </row>
     <row r="18" spans="1:10" ht="66" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="5"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
     </row>
     <row r="19" spans="1:10" ht="66" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
     </row>
     <row r="20" spans="1:10" ht="66" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="5"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
     </row>
     <row r="21" spans="1:10" ht="66" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="5"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
     </row>
     <row r="22" spans="1:10" ht="66" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="5"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
+      <c r="A22" s="4"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
     </row>
     <row r="23" spans="1:10" ht="66" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="5"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
+      <c r="A23" s="4"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
     </row>
     <row r="24" spans="1:10" ht="66" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="5"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
     </row>
     <row r="25" spans="1:10" ht="66" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="5"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
     </row>
     <row r="26" spans="1:10" ht="66" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="5"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
     </row>
     <row r="27" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="5"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
+      <c r="A27" s="4"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
     </row>
     <row r="28" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="5"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
+      <c r="A28" s="4"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
     </row>
     <row r="29" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="5"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
+      <c r="A29" s="4"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
     </row>
     <row r="30" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="5"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
+      <c r="A30" s="4"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
     </row>
     <row r="31" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="5"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
+      <c r="A31" s="4"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
     </row>
     <row r="32" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="5"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
+      <c r="A32" s="4"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="G9:I9"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C6:J6"/>
@@ -1571,19 +1592,6 @@
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="F9:F10"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1596,7 +1604,7 @@
   <dimension ref="A2:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:F3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1611,306 +1619,363 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="9" t="s">
+      <c r="B2" s="23"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="11" t="s">
+      <c r="B3" s="16"/>
+      <c r="C3" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="19"/>
+      <c r="G3" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="16"/>
+      <c r="J3" s="14">
+        <v>43823</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="16"/>
+      <c r="C4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="19"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="16"/>
+      <c r="J4" s="14">
+        <v>43826</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="16"/>
+      <c r="C5" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="22"/>
-      <c r="J3" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="F4" s="17"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="22"/>
-      <c r="J4" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="19"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="16"/>
+      <c r="J5" s="14">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="69" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="16"/>
+      <c r="C6" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="F5" s="17"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="22"/>
-      <c r="J5" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="69" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="17"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="19"/>
     </row>
     <row r="7" spans="1:10" ht="127.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="17"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="19"/>
     </row>
     <row r="8" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B9" s="34"/>
       <c r="C9" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D9" s="34"/>
       <c r="E9" s="34"/>
       <c r="F9" s="34"/>
       <c r="G9" s="34"/>
       <c r="H9" s="34"/>
-      <c r="I9" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J9" s="7" t="s">
+      <c r="I9" s="6" t="s">
         <v>42</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="29"/>
+      <c r="C10" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="30"/>
       <c r="B11" s="31"/>
-      <c r="C11" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
+      <c r="C11" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="30"/>
       <c r="B12" s="31"/>
-      <c r="C12" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
+      <c r="C12" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="30"/>
       <c r="B13" s="31"/>
-      <c r="C13" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
+      <c r="C13" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="30"/>
       <c r="B14" s="31"/>
-      <c r="C14" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
+      <c r="C14" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="30"/>
       <c r="B15" s="31"/>
-      <c r="C15" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
+      <c r="C15" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="30"/>
       <c r="B16" s="31"/>
-      <c r="C16" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
+      <c r="C16" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="30"/>
       <c r="B17" s="31"/>
-      <c r="C17" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
+      <c r="C17" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="30"/>
       <c r="B18" s="31"/>
-      <c r="C18" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
+      <c r="C18" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="30"/>
       <c r="B19" s="31"/>
-      <c r="C19" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
+      <c r="C19" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="32"/>
       <c r="B20" s="33"/>
-      <c r="C20" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
+      <c r="C20" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A4:B4"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C17:H17"/>
     <mergeCell ref="C18:H18"/>
@@ -1927,19 +1992,6 @@
     <mergeCell ref="C13:H13"/>
     <mergeCell ref="C14:H14"/>
     <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A4:B4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1967,15 +2019,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
-        <v>44</v>
+      <c r="A1" s="9" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="35"/>
+      <c r="B2" s="44"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -1983,653 +2035,632 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="11" t="s">
+      <c r="B3" s="16"/>
+      <c r="C3" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="17"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="19"/>
     </row>
     <row r="4" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="7" t="s">
+      <c r="B4" s="16"/>
+      <c r="C4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="17"/>
+      <c r="E4" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="19"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="17"/>
+      <c r="A6" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="19"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="37"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="38"/>
+      <c r="A7" s="36"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="37"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="39"/>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="40"/>
+      <c r="A8" s="45"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="46"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="39"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="40"/>
+      <c r="A9" s="45"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="46"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="39"/>
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="40"/>
+      <c r="A10" s="45"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="46"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="39"/>
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="40"/>
+      <c r="A11" s="45"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="46"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="39"/>
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="40"/>
+      <c r="A12" s="45"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="46"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="39"/>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="40"/>
+      <c r="A13" s="45"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="46"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="39"/>
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="40"/>
+      <c r="A14" s="45"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="46"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="39"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="40"/>
+      <c r="A15" s="45"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="46"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="39"/>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="40"/>
+      <c r="A16" s="45"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="46"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="39"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="40"/>
+      <c r="A17" s="45"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="46"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="39"/>
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="40"/>
+      <c r="A18" s="45"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="46"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="39"/>
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="40"/>
+      <c r="A19" s="45"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="46"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="39"/>
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="40"/>
+      <c r="A20" s="45"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="46"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="39"/>
-      <c r="B21" s="39"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="40"/>
+      <c r="A21" s="45"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="46"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="39"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="40"/>
+      <c r="A22" s="45"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="46"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="39"/>
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="40"/>
+      <c r="A23" s="45"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="46"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="39"/>
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="40"/>
+      <c r="A24" s="45"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="45"/>
+      <c r="J24" s="46"/>
     </row>
     <row r="25" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="39"/>
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="39"/>
-      <c r="I25" s="39"/>
-      <c r="J25" s="40"/>
+      <c r="A25" s="45"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="46"/>
     </row>
     <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="39"/>
-      <c r="B26" s="39"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="39"/>
-      <c r="I26" s="39"/>
-      <c r="J26" s="40"/>
+      <c r="A26" s="45"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="45"/>
+      <c r="J26" s="46"/>
     </row>
     <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="39"/>
-      <c r="B27" s="39"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="39"/>
-      <c r="I27" s="39"/>
-      <c r="J27" s="40"/>
+      <c r="A27" s="45"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="45"/>
+      <c r="I27" s="45"/>
+      <c r="J27" s="46"/>
     </row>
     <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="39"/>
-      <c r="B28" s="39"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="39"/>
-      <c r="J28" s="40"/>
+      <c r="A28" s="45"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="45"/>
+      <c r="J28" s="46"/>
     </row>
     <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="39"/>
-      <c r="B29" s="39"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="40"/>
+      <c r="A29" s="45"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="45"/>
+      <c r="I29" s="45"/>
+      <c r="J29" s="46"/>
     </row>
     <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="39"/>
-      <c r="B30" s="39"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="39"/>
-      <c r="I30" s="39"/>
-      <c r="J30" s="40"/>
+      <c r="A30" s="45"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="45"/>
+      <c r="I30" s="45"/>
+      <c r="J30" s="46"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="B31" s="27"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="17"/>
+      <c r="A31" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="19"/>
     </row>
     <row r="32" spans="1:10" ht="318.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="36"/>
-      <c r="B32" s="37"/>
-      <c r="C32" s="37"/>
-      <c r="D32" s="37"/>
-      <c r="E32" s="37"/>
-      <c r="F32" s="37"/>
-      <c r="G32" s="37"/>
-      <c r="H32" s="37"/>
-      <c r="I32" s="37"/>
-      <c r="J32" s="38"/>
+      <c r="A32" s="35"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="37"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="16"/>
-      <c r="B33" s="27"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="27"/>
-      <c r="J33" s="17"/>
+      <c r="A33" s="24"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="19"/>
     </row>
     <row r="34" spans="1:10" ht="309.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="36"/>
-      <c r="B34" s="37"/>
-      <c r="C34" s="37"/>
-      <c r="D34" s="37"/>
-      <c r="E34" s="37"/>
-      <c r="F34" s="37"/>
-      <c r="G34" s="37"/>
-      <c r="H34" s="37"/>
-      <c r="I34" s="37"/>
-      <c r="J34" s="38"/>
+      <c r="A34" s="35"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="37"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="16"/>
-      <c r="B35" s="27"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="27"/>
-      <c r="J35" s="17"/>
+      <c r="A35" s="24"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="19"/>
     </row>
     <row r="36" spans="1:10" ht="291" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="36"/>
-      <c r="B36" s="37"/>
-      <c r="C36" s="37"/>
-      <c r="D36" s="37"/>
-      <c r="E36" s="37"/>
-      <c r="F36" s="37"/>
-      <c r="G36" s="37"/>
-      <c r="H36" s="37"/>
-      <c r="I36" s="37"/>
-      <c r="J36" s="38"/>
+      <c r="A36" s="35"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="37"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="16"/>
-      <c r="B37" s="27"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="27"/>
-      <c r="I37" s="27"/>
-      <c r="J37" s="17"/>
+      <c r="A37" s="24"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="19"/>
     </row>
     <row r="38" spans="1:10" ht="282.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="36"/>
-      <c r="B38" s="37"/>
-      <c r="C38" s="37"/>
-      <c r="D38" s="37"/>
-      <c r="E38" s="37"/>
-      <c r="F38" s="37"/>
-      <c r="G38" s="37"/>
-      <c r="H38" s="37"/>
-      <c r="I38" s="37"/>
-      <c r="J38" s="38"/>
+      <c r="A38" s="35"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="36"/>
+      <c r="J38" s="37"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="16"/>
-      <c r="B39" s="27"/>
-      <c r="C39" s="27"/>
-      <c r="D39" s="27"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="27"/>
-      <c r="H39" s="27"/>
-      <c r="I39" s="27"/>
-      <c r="J39" s="17"/>
+      <c r="A39" s="24"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="19"/>
     </row>
     <row r="40" spans="1:10" ht="243.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="36"/>
-      <c r="B40" s="37"/>
-      <c r="C40" s="37"/>
-      <c r="D40" s="37"/>
-      <c r="E40" s="37"/>
-      <c r="F40" s="37"/>
-      <c r="G40" s="37"/>
-      <c r="H40" s="37"/>
-      <c r="I40" s="37"/>
-      <c r="J40" s="38"/>
+      <c r="A40" s="35"/>
+      <c r="B40" s="36"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="36"/>
+      <c r="I40" s="36"/>
+      <c r="J40" s="37"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A41" s="16"/>
-      <c r="B41" s="27"/>
-      <c r="C41" s="27"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="27"/>
-      <c r="I41" s="27"/>
-      <c r="J41" s="17"/>
+      <c r="A41" s="24"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="18"/>
+      <c r="J41" s="19"/>
     </row>
     <row r="42" spans="1:10" ht="282.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="36"/>
-      <c r="B42" s="37"/>
-      <c r="C42" s="37"/>
-      <c r="D42" s="37"/>
-      <c r="E42" s="37"/>
-      <c r="F42" s="37"/>
-      <c r="G42" s="37"/>
-      <c r="H42" s="37"/>
-      <c r="I42" s="37"/>
-      <c r="J42" s="38"/>
+      <c r="A42" s="35"/>
+      <c r="B42" s="36"/>
+      <c r="C42" s="36"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="36"/>
+      <c r="G42" s="36"/>
+      <c r="H42" s="36"/>
+      <c r="I42" s="36"/>
+      <c r="J42" s="37"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A43" s="16"/>
-      <c r="B43" s="27"/>
-      <c r="C43" s="27"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="27"/>
-      <c r="G43" s="27"/>
-      <c r="H43" s="27"/>
-      <c r="I43" s="27"/>
-      <c r="J43" s="17"/>
+      <c r="A43" s="24"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="18"/>
+      <c r="I43" s="18"/>
+      <c r="J43" s="19"/>
     </row>
     <row r="44" spans="1:10" ht="243.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="36"/>
-      <c r="B44" s="37"/>
-      <c r="C44" s="37"/>
-      <c r="D44" s="37"/>
-      <c r="E44" s="37"/>
-      <c r="F44" s="37"/>
-      <c r="G44" s="37"/>
-      <c r="H44" s="37"/>
-      <c r="I44" s="37"/>
-      <c r="J44" s="38"/>
+      <c r="A44" s="35"/>
+      <c r="B44" s="36"/>
+      <c r="C44" s="36"/>
+      <c r="D44" s="36"/>
+      <c r="E44" s="36"/>
+      <c r="F44" s="36"/>
+      <c r="G44" s="36"/>
+      <c r="H44" s="36"/>
+      <c r="I44" s="36"/>
+      <c r="J44" s="37"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A45" s="16"/>
-      <c r="B45" s="27"/>
-      <c r="C45" s="27"/>
-      <c r="D45" s="27"/>
-      <c r="E45" s="27"/>
-      <c r="F45" s="27"/>
-      <c r="G45" s="27"/>
-      <c r="H45" s="27"/>
-      <c r="I45" s="27"/>
-      <c r="J45" s="17"/>
+      <c r="A45" s="24"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="18"/>
+      <c r="I45" s="18"/>
+      <c r="J45" s="19"/>
     </row>
     <row r="46" spans="1:10" ht="277.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="36"/>
-      <c r="B46" s="37"/>
-      <c r="C46" s="37"/>
-      <c r="D46" s="37"/>
-      <c r="E46" s="37"/>
-      <c r="F46" s="37"/>
-      <c r="G46" s="37"/>
-      <c r="H46" s="37"/>
-      <c r="I46" s="37"/>
-      <c r="J46" s="38"/>
+      <c r="A46" s="35"/>
+      <c r="B46" s="36"/>
+      <c r="C46" s="36"/>
+      <c r="D46" s="36"/>
+      <c r="E46" s="36"/>
+      <c r="F46" s="36"/>
+      <c r="G46" s="36"/>
+      <c r="H46" s="36"/>
+      <c r="I46" s="36"/>
+      <c r="J46" s="37"/>
     </row>
     <row r="47" spans="1:10" ht="246.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="44"/>
-      <c r="B47" s="45"/>
-      <c r="C47" s="45"/>
-      <c r="D47" s="45"/>
-      <c r="E47" s="45"/>
-      <c r="F47" s="45"/>
-      <c r="G47" s="45"/>
-      <c r="H47" s="45"/>
-      <c r="I47" s="45"/>
-      <c r="J47" s="46"/>
+      <c r="A47" s="41"/>
+      <c r="B47" s="42"/>
+      <c r="C47" s="42"/>
+      <c r="D47" s="42"/>
+      <c r="E47" s="42"/>
+      <c r="F47" s="42"/>
+      <c r="G47" s="42"/>
+      <c r="H47" s="42"/>
+      <c r="I47" s="42"/>
+      <c r="J47" s="43"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A48" s="16"/>
-      <c r="B48" s="27"/>
-      <c r="C48" s="27"/>
-      <c r="D48" s="27"/>
-      <c r="E48" s="27"/>
-      <c r="F48" s="27"/>
-      <c r="G48" s="27"/>
-      <c r="H48" s="27"/>
-      <c r="I48" s="27"/>
-      <c r="J48" s="17"/>
+      <c r="A48" s="24"/>
+      <c r="B48" s="18"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="18"/>
+      <c r="E48" s="18"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="18"/>
+      <c r="H48" s="18"/>
+      <c r="I48" s="18"/>
+      <c r="J48" s="19"/>
     </row>
     <row r="49" spans="1:10" ht="282.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="36"/>
-      <c r="B49" s="37"/>
-      <c r="C49" s="37"/>
-      <c r="D49" s="37"/>
-      <c r="E49" s="37"/>
-      <c r="F49" s="37"/>
-      <c r="G49" s="37"/>
-      <c r="H49" s="37"/>
-      <c r="I49" s="37"/>
-      <c r="J49" s="38"/>
+      <c r="A49" s="35"/>
+      <c r="B49" s="36"/>
+      <c r="C49" s="36"/>
+      <c r="D49" s="36"/>
+      <c r="E49" s="36"/>
+      <c r="F49" s="36"/>
+      <c r="G49" s="36"/>
+      <c r="H49" s="36"/>
+      <c r="I49" s="36"/>
+      <c r="J49" s="37"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A50" s="16"/>
-      <c r="B50" s="27"/>
-      <c r="C50" s="27"/>
-      <c r="D50" s="27"/>
-      <c r="E50" s="27"/>
-      <c r="F50" s="27"/>
-      <c r="G50" s="27"/>
-      <c r="H50" s="27"/>
-      <c r="I50" s="27"/>
-      <c r="J50" s="17"/>
+      <c r="A50" s="24"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="18"/>
+      <c r="H50" s="18"/>
+      <c r="I50" s="18"/>
+      <c r="J50" s="19"/>
     </row>
     <row r="51" spans="1:10" ht="282.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="36"/>
-      <c r="B51" s="37"/>
-      <c r="C51" s="37"/>
-      <c r="D51" s="37"/>
-      <c r="E51" s="37"/>
-      <c r="F51" s="37"/>
-      <c r="G51" s="37"/>
-      <c r="H51" s="37"/>
-      <c r="I51" s="37"/>
-      <c r="J51" s="38"/>
+      <c r="A51" s="35"/>
+      <c r="B51" s="36"/>
+      <c r="C51" s="36"/>
+      <c r="D51" s="36"/>
+      <c r="E51" s="36"/>
+      <c r="F51" s="36"/>
+      <c r="G51" s="36"/>
+      <c r="H51" s="36"/>
+      <c r="I51" s="36"/>
+      <c r="J51" s="37"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A52" s="16"/>
-      <c r="B52" s="27"/>
-      <c r="C52" s="27"/>
-      <c r="D52" s="27"/>
-      <c r="E52" s="27"/>
-      <c r="F52" s="27"/>
-      <c r="G52" s="27"/>
-      <c r="H52" s="27"/>
-      <c r="I52" s="27"/>
-      <c r="J52" s="17"/>
+      <c r="A52" s="24"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="18"/>
+      <c r="F52" s="18"/>
+      <c r="G52" s="18"/>
+      <c r="H52" s="18"/>
+      <c r="I52" s="18"/>
+      <c r="J52" s="19"/>
     </row>
     <row r="53" spans="1:10" ht="282.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="41"/>
-      <c r="B53" s="42"/>
-      <c r="C53" s="42"/>
-      <c r="D53" s="42"/>
-      <c r="E53" s="42"/>
-      <c r="F53" s="42"/>
-      <c r="G53" s="42"/>
-      <c r="H53" s="42"/>
-      <c r="I53" s="42"/>
-      <c r="J53" s="43"/>
+      <c r="A53" s="38"/>
+      <c r="B53" s="39"/>
+      <c r="C53" s="39"/>
+      <c r="D53" s="39"/>
+      <c r="E53" s="39"/>
+      <c r="F53" s="39"/>
+      <c r="G53" s="39"/>
+      <c r="H53" s="39"/>
+      <c r="I53" s="39"/>
+      <c r="J53" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A51:J51"/>
-    <mergeCell ref="A52:J52"/>
-    <mergeCell ref="A53:J53"/>
-    <mergeCell ref="A46:J46"/>
-    <mergeCell ref="A47:J47"/>
-    <mergeCell ref="A48:J48"/>
-    <mergeCell ref="A49:J49"/>
-    <mergeCell ref="A50:J50"/>
-    <mergeCell ref="A41:J41"/>
-    <mergeCell ref="A42:J42"/>
-    <mergeCell ref="A43:J43"/>
-    <mergeCell ref="A44:J44"/>
-    <mergeCell ref="A45:J45"/>
-    <mergeCell ref="A38:J38"/>
-    <mergeCell ref="A39:J39"/>
-    <mergeCell ref="A40:J40"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A35:J35"/>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A37:J37"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A32:J32"/>
@@ -2639,6 +2670,27 @@
     <mergeCell ref="E3:J3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="E4:J4"/>
+    <mergeCell ref="A38:J38"/>
+    <mergeCell ref="A39:J39"/>
+    <mergeCell ref="A40:J40"/>
+    <mergeCell ref="A33:J33"/>
+    <mergeCell ref="A34:J34"/>
+    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="A36:J36"/>
+    <mergeCell ref="A37:J37"/>
+    <mergeCell ref="A41:J41"/>
+    <mergeCell ref="A42:J42"/>
+    <mergeCell ref="A43:J43"/>
+    <mergeCell ref="A44:J44"/>
+    <mergeCell ref="A45:J45"/>
+    <mergeCell ref="A51:J51"/>
+    <mergeCell ref="A52:J52"/>
+    <mergeCell ref="A53:J53"/>
+    <mergeCell ref="A46:J46"/>
+    <mergeCell ref="A47:J47"/>
+    <mergeCell ref="A48:J48"/>
+    <mergeCell ref="A49:J49"/>
+    <mergeCell ref="A50:J50"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
